--- a/inst/extdata/test_xtab2021.xlsx
+++ b/inst/extdata/test_xtab2021.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -170,6 +170,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -244,44 +245,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -294,1840 +299,1886 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="false" view="normal" topLeftCell="A1" colorId="22" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>9139</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>356</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>183</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <v>126</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <v>146</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>124</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>149</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="7" t="n">
         <v>211</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="7" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>0.87</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>0.72</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.68</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="8" t="n">
         <v>0.74</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="8" t="n">
         <v>0.77</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="8" t="n">
         <v>0.72</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="8" t="n">
         <v>0.71</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="8" t="n">
         <v>0.66</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="8" t="n">
         <v>0.71</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="P6" s="8" t="n">
         <v>0.66</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="8" t="n">
         <v>0.73</v>
       </c>
-      <c r="R6" s="7" t="n">
+      <c r="R6" s="8" t="n">
         <v>0.81</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="S6" s="8" t="n">
         <v>0.71</v>
       </c>
-      <c r="T6" s="7" t="n">
+      <c r="T6" s="8" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>0.23</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="8" t="n">
         <v>0.24</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <v>0.24</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="8" t="n">
         <v>0.24</v>
       </c>
-      <c r="R7" s="7" t="n">
+      <c r="R7" s="8" t="n">
         <v>0.18</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="T7" s="7" t="n">
+      <c r="T7" s="8" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="E8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
+      <c r="L8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="P8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="R8" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="S8" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="T8" s="7" t="n">
+      <c r="T8" s="8" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="B9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="E9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
+      <c r="M9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="P9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="R9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="n">
+      <c r="R9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="T9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="7" t="n">
         <v>7264</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>254</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>118</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>131</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>98</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <v>113</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="7" t="n">
         <v>94</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="7" t="n">
         <v>92</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
         <v>112</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="7" t="n">
         <v>153</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="7" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <v>0.13</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>0.18</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>0.08</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <v>0.16</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="8" t="n">
         <v>0.09</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="8" t="n">
         <v>0.23</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="8" t="n">
         <v>0.09</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="8" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="S16" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="T16" s="8" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>0.22</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.23</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="8" t="n">
         <v>0.29</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="8" t="n">
         <v>0.24</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="Q17" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="R17" s="7" t="n">
+      <c r="R17" s="8" t="n">
         <v>0.47</v>
       </c>
-      <c r="S17" s="7" t="n">
+      <c r="S17" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="T17" s="8" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>0.48</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="8" t="n">
         <v>0.33</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>0.46</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="8" t="n">
         <v>0.33</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="8" t="n">
         <v>0.37</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="8" t="n">
         <v>0.37</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="Q18" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="R18" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="S18" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="T18" s="8" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="8" t="n">
         <v>0.18</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="8" t="n">
         <v>0.16</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="M19" s="8" t="n">
         <v>0.23</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="N19" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="Q19" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="S19" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="T19" s="8" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="8" t="n">
         <v>0.08</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="8" t="n">
         <v>0.08</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <v>0.09</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q20" s="7" t="n">
+      <c r="Q20" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="R20" s="7" t="n">
+      <c r="R20" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="S20" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="T20" s="8" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="F21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="n">
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="M21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="Q21" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="R21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7" t="n">
+      <c r="R21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="T21" s="8" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="n">
+      <c r="B22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="n">
+      <c r="L22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="N22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="n">
+      <c r="N22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7" t="n">
+      <c r="Q22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="T22" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B29" s="7" t="n">
         <v>9139</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>356</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>183</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="7" t="n">
         <v>126</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="7" t="n">
         <v>146</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="7" t="n">
         <v>124</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="7" t="n">
         <v>128</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="Q29" s="6" t="n">
+      <c r="Q29" s="7" t="n">
         <v>149</v>
       </c>
-      <c r="R29" s="6" t="n">
+      <c r="R29" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="S29" s="7" t="n">
         <v>211</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="T29" s="7" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="8" t="n">
         <v>0.09</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="K30" s="8" t="n">
         <v>0.03</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="8" t="n">
         <v>0.07</v>
       </c>
-      <c r="P30" s="7" t="n">
+      <c r="P30" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q30" s="7" t="n">
+      <c r="Q30" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="R30" s="7" t="n">
+      <c r="R30" s="8" t="n">
         <v>0.09</v>
       </c>
-      <c r="S30" s="7" t="n">
+      <c r="S30" s="8" t="n">
         <v>0.05</v>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="T30" s="8" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="8" t="n">
         <v>0.37</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="8" t="n">
         <v>0.22</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="M31" s="8" t="n">
         <v>0.21</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="8" t="n">
         <v>0.22</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="P31" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="Q31" s="7" t="n">
+      <c r="Q31" s="8" t="n">
         <v>0.18</v>
       </c>
-      <c r="R31" s="7" t="n">
+      <c r="R31" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="S31" s="7" t="n">
+      <c r="S31" s="8" t="n">
         <v>0.22</v>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="T31" s="8" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="8" t="n">
         <v>0.24</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="8" t="n">
         <v>0.34</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="8" t="n">
         <v>0.35</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="8" t="n">
         <v>0.33</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="8" t="n">
         <v>0.34</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="8" t="n">
         <v>0.29</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="M32" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="8" t="n">
         <v>0.34</v>
       </c>
-      <c r="P32" s="7" t="n">
+      <c r="P32" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q32" s="7" t="n">
+      <c r="Q32" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="R32" s="7" t="n">
+      <c r="R32" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="S32" s="7" t="n">
+      <c r="S32" s="8" t="n">
         <v>0.29</v>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="T32" s="8" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="8" t="n">
         <v>0.29</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="8" t="n">
         <v>0.27</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="8" t="n">
         <v>0.42</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="8" t="n">
         <v>0.18</v>
       </c>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="K33" s="8" t="n">
         <v>0.26</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="M33" s="7" t="n">
+      <c r="M33" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="N33" s="7" t="n">
+      <c r="N33" s="8" t="n">
         <v>0.31</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="O33" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="P33" s="7" t="n">
+      <c r="P33" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="Q33" s="7" t="n">
+      <c r="Q33" s="8" t="n">
         <v>0.32</v>
       </c>
-      <c r="R33" s="7" t="n">
+      <c r="R33" s="8" t="n">
         <v>0.16</v>
       </c>
-      <c r="S33" s="7" t="n">
+      <c r="S33" s="8" t="n">
         <v>0.28</v>
       </c>
-      <c r="T33" s="7" t="n">
+      <c r="T33" s="8" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="8" t="n">
         <v>0.06</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="8" t="n">
         <v>0.16</v>
       </c>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="8" t="n">
         <v>0.12</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="K34" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="L34" s="7" t="n">
+      <c r="L34" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="M34" s="8" t="n">
         <v>0.13</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="N34" s="8" t="n">
         <v>0.19</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="P34" s="8" t="n">
         <v>0.14</v>
       </c>
-      <c r="Q34" s="7" t="n">
+      <c r="Q34" s="8" t="n">
         <v>0.13</v>
       </c>
-      <c r="R34" s="7" t="n">
+      <c r="R34" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="S34" s="7" t="n">
+      <c r="S34" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="T34" s="7" t="n">
+      <c r="T34" s="8" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7" t="n">
+      <c r="B35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2159,7 +2210,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
